--- a/biology/Médecine/Polyendocrinopathie_auto-immune/Polyendocrinopathie_auto-immune.xlsx
+++ b/biology/Médecine/Polyendocrinopathie_auto-immune/Polyendocrinopathie_auto-immune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les polyendocrinopathies auto-immune de type 1, 2 et 3 sont un groupe rare hétérogène de maladies auto-immunes liées, mais sans être limitées, à plusieurs organes endocriniens.
 </t>
@@ -511,9 +523,11 @@
           <t>Type 1</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La polyendocrinopathie auto-immune de type 1 est une maladie génétique autosomique récessive rare. Elle se manifeste principalement par une hypoparathyroïdie, une insuffisance surrénale et une candidose diffuse, occasionnellement par une alopécie. Elle peut être conjointe à d'autres manifestations auto-immunes tel que la maladie de Biermer, des dysthyroïdies, le diabète de type 1 et la maladie cœliaque[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La polyendocrinopathie auto-immune de type 1 est une maladie génétique autosomique récessive rare. Elle se manifeste principalement par une hypoparathyroïdie, une insuffisance surrénale et une candidose diffuse, occasionnellement par une alopécie. Elle peut être conjointe à d'autres manifestations auto-immunes tel que la maladie de Biermer, des dysthyroïdies, le diabète de type 1 et la maladie cœliaque.
 Cette pathologie est dû à une mutation du gène AIRE sur le chromosome 21.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Type 2</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La polyendocrinopathie auto-immune de type 2 appelée également syndrome de Schmidt est une maladie génétique autosomique dominante se manifestant essentiellement par une insuffisance surrénalienne, une maladie thyroïdienne auto-immune (tel que la maladie de Basedow, la thyroïdite de Hashimoto) et/ou un diabète de type 1. 
-Elle peut aussi s'accompagner d'hypogonadisme, d'hypoparathyroïdie, d'hépatite auto-immune, de vitiligo, de gastrite auto-immune et d'une myasthénie grave[4].
+Elle peut aussi s'accompagner d'hypogonadisme, d'hypoparathyroïdie, d'hépatite auto-immune, de vitiligo, de gastrite auto-immune et d'une myasthénie grave.
 C'est une maladie polygénique qui n'a été associée à aucun gène particulier.
 </t>
         </is>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
